--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value782.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value782.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.016648603901365</v>
+        <v>1.786669850349426</v>
       </c>
       <c r="B1">
-        <v>3.373537690386437</v>
+        <v>4.155766487121582</v>
       </c>
       <c r="C1">
-        <v>3.341493634409883</v>
+        <v>2.084121227264404</v>
       </c>
       <c r="D1">
-        <v>2.188798982353851</v>
+        <v>0.8923735618591309</v>
       </c>
       <c r="E1">
-        <v>1.204372410750221</v>
+        <v>0.481493353843689</v>
       </c>
     </row>
   </sheetData>
